--- a/documents/0.项目周报/项目周报版本控制模板.xlsx
+++ b/documents/0.项目周报/项目周报版本控制模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="460" windowWidth="24780" windowHeight="15540"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>文档名称</t>
   </si>
@@ -162,6 +162,25 @@
     <rPh sb="9" eb="10">
       <t>si</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-29</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、添加第五次例会会议记录 3、更新项目进度</t>
+    <rPh sb="5" eb="6">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更新项目进度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1501,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1577,17 +1596,33 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/documents/0.项目周报/项目周报版本控制模板.xlsx
+++ b/documents/0.项目周报/项目周报版本控制模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>文档名称</t>
   </si>
@@ -181,6 +181,29 @@
   </si>
   <si>
     <t>1、更新项目进度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-04-07</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成所有项目周报内容</t>
+    <rPh sb="2" eb="3">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhou'bao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nei'rong</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1626,10 +1649,18 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
